--- a/_build/utils/dm-dependencies/resources/non_dm_rules.xlsx
+++ b/_build/utils/dm-dependencies/resources/non_dm_rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Corpora\GUM\github\_build\utils\dm-dependencies\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EA6B4E-466E-4F20-A942-56320D329A78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AECC1F3-C3E7-4361-B4E1-234C9CD14A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9324" xr2:uid="{BF4EFA19-1866-4339-A4F4-33A768915554}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BF4EFA19-1866-4339-A4F4-33A768915554}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="338">
   <si>
     <t>satellite</t>
   </si>
@@ -382,9 +382,6 @@
     <t>$attrib_verb</t>
   </si>
   <si>
-    <t>–</t>
-  </si>
-  <si>
     <t>Last=EDU</t>
   </si>
   <si>
@@ -781,9 +778,6 @@
     <t>(elaboration-additional_r|joint-(list|other)_m)</t>
   </si>
   <si>
-    <t>(?i)fueled</t>
-  </si>
-  <si>
     <t>(?i)(result|triggering)</t>
   </si>
   <si>
@@ -799,9 +793,6 @@
     <t>(?i)(see|shown)</t>
   </si>
   <si>
-    <t>(?i)considering</t>
-  </si>
-  <si>
     <t>formunigram</t>
   </si>
   <si>
@@ -1021,9 +1012,6 @@
     <t>(consider|P\.?S\.?|sincerely)</t>
   </si>
   <si>
-    <t>(importantly|shit|fun|loser|probably|strangely|oddly|fuck|hopefully|fortunately|unfortunately|fucking|proble-|problem|lol|oWo|:/|:\)|:\(|;\)|best|:-\)|:-\(|interestingly|striking|very|extremely|highly|exceptionally|extraordinarily|masterpiece|top|milestone|sadness|excitement|ew|yikes|yay|whoa|delight|hard)</t>
-  </si>
-  <si>
     <t>$attrib_verb = (accept|acknowledge|add|admit|afraid|agree|announce|argue|ask|assert|assess|assume|assure|aware|believe|bet|call|certain|chant|check|claim|comment|complain|concern|conclude|confirm|convince|cry|decide|declare|determine|disappoint|discover|discuss|doubt|dream|emphasize|ensure|establish|estimate|exclaim|expect|explain|express|feel|figure|find|forget|gather|glad|guess|happy|hear|hope|hypothesize|imagine|imply|indicate|inform|know|learn|lie|maintain|mean|mention|mindful|note|notice|observe|pant|perceive|point|posit|pray|predict|presume|promise|propose|proud|quote|re-iterate|read|realise|realize|reason|recall|recognize|recommend|reiterate|remember|remind|reply|report|resent|reveal|rule|say|scream|see|shout|show|shrug|sing|snap|start|state|suggest|summarize|suppose|sure|surprise|surprised|suspect|swear|tell|terrify|think|tweet|understand|vlog|whisper|wish|witness|wonder|worry|write|be%like|go%say|keep%mind|bear%mind|make%sure)</t>
   </si>
   <si>
@@ -1033,7 +1021,25 @@
     <t>gram=(in_response|lead_to)_</t>
   </si>
   <si>
-    <t>(accurate|amazing|attractive|awesome|awful|bad|beautiful|big|cathartic|cautionary|clear|complicated|considerable|cool|correct|crazy|critical|cute|dark|decent|different|difficult|dreadful|easy|efficient|enough|essential|excellent|excited|exciting|false|fantastic|fine|frightful|froughtful|fun|fundamental|funny|glad|goddamn|good|great|gross|happy|hard|heady|healthy|heartwarming|high|historic|honest|ideal|important|inaccurate|insane|interesting|large|legendary|likely|long|low|lucky|magnificent|militant|natural|necessary|needy|nice|normal|okay|peaceful|perfect|pleasant|possible|practical|pretty|proud|rare|real|realistic|reliable|remarkable|right|sad|safe|same|scared|scary|scenic|significant|small|smart|sorry|special|strange|strong|stupid|sure|surprising|sweet|tame|tired|toxic|trash|tremendous|true|unlikely|unpalatable|unprecedented|useful|valuable|versatile|warm|weird|wild|wild|wonderful|worth|wrong)</t>
+    <t>(yes|no|yeah|right|yup|nope)</t>
+  </si>
+  <si>
+    <t>answer word</t>
+  </si>
+  <si>
+    <t>(–|—|—|--)</t>
+  </si>
+  <si>
+    <t>(?i)(fueled)</t>
+  </si>
+  <si>
+    <t>(?i)(considering)</t>
+  </si>
+  <si>
+    <t>(accurate|aggressive|amazing|attractive|awesome|awful|bad|beautiful|big|cathartic|cautionary|clean|clear|complicated|considerable|cool|correct|crazy|critical|cute|dark|decent|different|difficult|dreadful|easy|efficient|enough|essential|excellent|excited|exciting|false|fantastic|fine|frightful|froughtful|fun|fundamental|funny|glad|goddamn|good|great|gross|happy|hard|heady|healthy|heartwarming|high|historic|honest|ideal|important|inaccurate|insane|interesting|large|legendary|likely|long|low|lucky|magnificent|militant|natural|necessary|needy|nice|normal|okay|peaceful|perfect|pleasant|possible|practical|pretty|proud|rare|real|realistic|reliable|remarkable|right|sad|safe|same|scared|scary|scenic|significant|small|smart|solid|sorry|special|strange|strong|stupid|sure|surprising|sweet|tame|tired|toxic|trash|tremendous|true|unlikely|unpalatable|unprecedented|useful|valuable|versatile|warm|weird|wild|wild|wonderful|worth|wrong)</t>
+  </si>
+  <si>
+    <t>(doubtless|fun|importantly|loser|probably|shit|strangely|oddly|fuck|hopefully|fortunately|unfortunately|fucking|proble-|problem|lol|oWo|:/|:\)|:\(|;\)|best|:-\)|:-\(|interestingly|striking|very|extremely|highly|exceptionally|extraordinarily|masterpiece|top|milestone|sadness|excitement|ew|yikes|yay|whoa|delight|hard|legend)</t>
   </si>
 </sst>
 </file>
@@ -1419,23 +1425,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFA5BF6-386C-4E06-8AEF-60CB8C63BD33}">
-  <dimension ref="A1:S114"/>
+  <dimension ref="A1:S115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.41796875" customWidth="1"/>
-    <col min="7" max="7" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.41796875" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>62</v>
@@ -1468,7 +1474,7 @@
         <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>71</v>
@@ -1492,39 +1498,39 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1583,7 +1589,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1612,7 +1618,7 @@
         <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K7" t="s">
         <v>55</v>
@@ -1642,7 +1648,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1650,13 +1656,13 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D8" t="s">
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
@@ -1665,7 +1671,7 @@
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I8" t="s">
         <v>55</v>
@@ -1698,10 +1704,10 @@
         <v>12</v>
       </c>
       <c r="S8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K12" t="s">
         <v>55</v>
@@ -1916,7 +1922,7 @@
         <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N12" t="s">
         <v>55</v>
@@ -1937,7 +1943,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1951,7 +1957,7 @@
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
@@ -1966,7 +1972,7 @@
         <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K13" t="s">
         <v>55</v>
@@ -1975,7 +1981,7 @@
         <v>55</v>
       </c>
       <c r="M13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N13" t="s">
         <v>55</v>
@@ -1987,16 +1993,16 @@
         <v>13</v>
       </c>
       <c r="Q13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="R13" t="s">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -2055,7 +2061,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>10</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
@@ -2114,7 +2120,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>11</v>
       </c>
@@ -2122,7 +2128,7 @@
         <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
@@ -2173,7 +2179,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D17" t="s">
         <v>55</v>
@@ -2202,7 +2208,7 @@
         <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
         <v>55</v>
@@ -2223,7 +2229,7 @@
         <v>38</v>
       </c>
       <c r="Q17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="R17" t="s">
         <v>12</v>
@@ -2232,7 +2238,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>13</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>55</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s">
         <v>55</v>
@@ -2291,7 +2297,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2314,13 +2320,13 @@
         <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I19" t="s">
         <v>55</v>
       </c>
       <c r="J19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K19" t="s">
         <v>55</v>
@@ -2350,7 +2356,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>15</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>16</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>17</v>
       </c>
@@ -2497,10 +2503,10 @@
         <v>55</v>
       </c>
       <c r="J22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L22" t="s">
         <v>55</v>
@@ -2524,48 +2530,48 @@
         <v>12</v>
       </c>
       <c r="S22" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="B23" t="s">
+        <v>333</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" t="s">
         <v>118</v>
       </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" t="s">
         <v>119</v>
-      </c>
-      <c r="K23" t="s">
-        <v>55</v>
-      </c>
-      <c r="L23" t="s">
-        <v>55</v>
-      </c>
-      <c r="M23" t="s">
-        <v>120</v>
       </c>
       <c r="N23" t="s">
         <v>55</v>
@@ -2577,16 +2583,16 @@
         <v>13</v>
       </c>
       <c r="Q23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R23" t="s">
         <v>12</v>
       </c>
       <c r="S23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>19</v>
       </c>
@@ -2600,17 +2606,17 @@
         <v>55</v>
       </c>
       <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" t="s">
         <v>123</v>
       </c>
-      <c r="F24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" t="s">
-        <v>124</v>
-      </c>
       <c r="I24" t="s">
         <v>55</v>
       </c>
@@ -2624,7 +2630,7 @@
         <v>55</v>
       </c>
       <c r="M24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N24" t="s">
         <v>55</v>
@@ -2636,16 +2642,16 @@
         <v>13</v>
       </c>
       <c r="Q24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R24" t="s">
         <v>12</v>
       </c>
       <c r="S24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>20</v>
       </c>
@@ -2653,16 +2659,16 @@
         <v>55</v>
       </c>
       <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
         <v>127</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>128</v>
       </c>
       <c r="G25" t="s">
         <v>55</v>
@@ -2701,10 +2707,10 @@
         <v>12</v>
       </c>
       <c r="S25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2712,7 +2718,7 @@
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
         <v>55</v>
@@ -2733,16 +2739,16 @@
         <v>55</v>
       </c>
       <c r="J26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" t="s">
         <v>133</v>
-      </c>
-      <c r="K26" t="s">
-        <v>55</v>
-      </c>
-      <c r="L26" t="s">
-        <v>55</v>
-      </c>
-      <c r="M26" t="s">
-        <v>134</v>
       </c>
       <c r="N26" t="s">
         <v>55</v>
@@ -2760,10 +2766,10 @@
         <v>12</v>
       </c>
       <c r="S26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>22</v>
       </c>
@@ -2771,37 +2777,37 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
         <v>137</v>
       </c>
-      <c r="D27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" t="s">
         <v>138</v>
-      </c>
-      <c r="F27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" t="s">
-        <v>139</v>
       </c>
       <c r="N27" t="s">
         <v>55</v>
@@ -2819,10 +2825,10 @@
         <v>12</v>
       </c>
       <c r="S27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>23</v>
       </c>
@@ -2830,13 +2836,13 @@
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F28" t="s">
         <v>55</v>
@@ -2860,7 +2866,7 @@
         <v>55</v>
       </c>
       <c r="M28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N28" t="s">
         <v>55</v>
@@ -2878,10 +2884,10 @@
         <v>12</v>
       </c>
       <c r="S28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>24</v>
       </c>
@@ -2895,52 +2901,52 @@
         <v>55</v>
       </c>
       <c r="E29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" t="s">
         <v>146</v>
       </c>
-      <c r="F29" t="s">
-        <v>142</v>
-      </c>
-      <c r="G29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" t="s">
-        <v>55</v>
-      </c>
-      <c r="L29" t="s">
-        <v>55</v>
-      </c>
-      <c r="M29" t="s">
-        <v>147</v>
-      </c>
       <c r="N29" t="s">
         <v>55</v>
       </c>
       <c r="O29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P29" t="s">
         <v>13</v>
       </c>
       <c r="Q29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R29" t="s">
         <v>12</v>
       </c>
       <c r="S29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>25</v>
       </c>
@@ -2948,58 +2954,58 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" t="s">
         <v>149</v>
       </c>
-      <c r="D30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" t="s">
         <v>150</v>
       </c>
-      <c r="K30" t="s">
-        <v>55</v>
-      </c>
-      <c r="L30" t="s">
-        <v>55</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" t="s">
+        <v>55</v>
+      </c>
+      <c r="P30" t="s">
         <v>151</v>
       </c>
-      <c r="N30" t="s">
-        <v>55</v>
-      </c>
-      <c r="O30" t="s">
-        <v>55</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>152</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>153</v>
       </c>
       <c r="R30" t="s">
         <v>12</v>
       </c>
       <c r="S30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>26</v>
       </c>
@@ -3022,43 +3028,43 @@
         <v>55</v>
       </c>
       <c r="H31" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" t="s">
         <v>142</v>
       </c>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="K31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L31" t="s">
-        <v>55</v>
-      </c>
-      <c r="M31" t="s">
-        <v>143</v>
-      </c>
       <c r="N31" t="s">
         <v>55</v>
       </c>
       <c r="O31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P31" t="s">
         <v>13</v>
       </c>
       <c r="Q31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R31" t="s">
         <v>12</v>
       </c>
       <c r="S31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>27</v>
       </c>
@@ -3087,19 +3093,19 @@
         <v>55</v>
       </c>
       <c r="J32" t="s">
+        <v>154</v>
+      </c>
+      <c r="K32" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" t="s">
         <v>155</v>
-      </c>
-      <c r="K32" t="s">
-        <v>55</v>
-      </c>
-      <c r="L32" t="s">
-        <v>55</v>
-      </c>
-      <c r="M32" t="s">
-        <v>55</v>
-      </c>
-      <c r="N32" t="s">
-        <v>156</v>
       </c>
       <c r="O32" t="s">
         <v>55</v>
@@ -3108,16 +3114,16 @@
         <v>13</v>
       </c>
       <c r="Q32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R32" t="s">
         <v>12</v>
       </c>
       <c r="S32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>28</v>
       </c>
@@ -3125,58 +3131,58 @@
         <v>55</v>
       </c>
       <c r="C33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" t="s">
         <v>161</v>
       </c>
-      <c r="D33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" t="s">
-        <v>160</v>
-      </c>
-      <c r="F33" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" t="s">
+        <v>129</v>
+      </c>
+      <c r="N33" t="s">
+        <v>55</v>
+      </c>
+      <c r="O33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P33" t="s">
         <v>162</v>
       </c>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33" t="s">
-        <v>55</v>
-      </c>
-      <c r="K33" t="s">
-        <v>55</v>
-      </c>
-      <c r="L33" t="s">
-        <v>55</v>
-      </c>
-      <c r="M33" t="s">
-        <v>130</v>
-      </c>
-      <c r="N33" t="s">
-        <v>55</v>
-      </c>
-      <c r="O33" t="s">
-        <v>55</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>163</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>164</v>
       </c>
       <c r="R33" t="s">
         <v>12</v>
       </c>
       <c r="S33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>29</v>
       </c>
@@ -3184,37 +3190,37 @@
         <v>55</v>
       </c>
       <c r="C34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
         <v>165</v>
       </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" t="s">
         <v>166</v>
-      </c>
-      <c r="F34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34" t="s">
-        <v>55</v>
-      </c>
-      <c r="K34" t="s">
-        <v>55</v>
-      </c>
-      <c r="L34" t="s">
-        <v>55</v>
-      </c>
-      <c r="M34" t="s">
-        <v>167</v>
       </c>
       <c r="N34" t="s">
         <v>55</v>
@@ -3232,10 +3238,10 @@
         <v>12</v>
       </c>
       <c r="S34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>30</v>
       </c>
@@ -3249,52 +3255,52 @@
         <v>55</v>
       </c>
       <c r="E35" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" t="s">
+        <v>168</v>
+      </c>
+      <c r="K35" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" t="s">
         <v>170</v>
       </c>
-      <c r="F35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" t="s">
-        <v>55</v>
-      </c>
-      <c r="J35" t="s">
-        <v>169</v>
-      </c>
-      <c r="K35" t="s">
-        <v>55</v>
-      </c>
-      <c r="L35" t="s">
-        <v>55</v>
-      </c>
-      <c r="M35" t="s">
-        <v>55</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P35" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q35" t="s">
         <v>171</v>
-      </c>
-      <c r="O35" t="s">
-        <v>55</v>
-      </c>
-      <c r="P35" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>172</v>
       </c>
       <c r="R35" t="s">
         <v>12</v>
       </c>
       <c r="S35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>31</v>
       </c>
@@ -3302,7 +3308,7 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D36" t="s">
         <v>55</v>
@@ -3335,25 +3341,25 @@
         <v>55</v>
       </c>
       <c r="N36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O36" t="s">
         <v>55</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R36" t="s">
         <v>12</v>
       </c>
       <c r="S36" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>32</v>
       </c>
@@ -3382,37 +3388,37 @@
         <v>55</v>
       </c>
       <c r="J37" t="s">
+        <v>172</v>
+      </c>
+      <c r="K37" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" t="s">
+        <v>55</v>
+      </c>
+      <c r="N37" t="s">
         <v>173</v>
       </c>
-      <c r="K37" t="s">
-        <v>55</v>
-      </c>
-      <c r="L37" t="s">
-        <v>55</v>
-      </c>
-      <c r="M37" t="s">
-        <v>55</v>
-      </c>
-      <c r="N37" t="s">
-        <v>174</v>
-      </c>
       <c r="O37" t="s">
         <v>55</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R37" t="s">
         <v>12</v>
       </c>
       <c r="S37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>33</v>
       </c>
@@ -3441,16 +3447,16 @@
         <v>55</v>
       </c>
       <c r="J38" t="s">
+        <v>174</v>
+      </c>
+      <c r="K38" t="s">
+        <v>55</v>
+      </c>
+      <c r="L38" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" t="s">
         <v>175</v>
-      </c>
-      <c r="K38" t="s">
-        <v>55</v>
-      </c>
-      <c r="L38" t="s">
-        <v>55</v>
-      </c>
-      <c r="M38" t="s">
-        <v>176</v>
       </c>
       <c r="N38" t="s">
         <v>55</v>
@@ -3462,16 +3468,16 @@
         <v>13</v>
       </c>
       <c r="Q38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R38" t="s">
         <v>12</v>
       </c>
       <c r="S38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>34</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D39" t="s">
         <v>55</v>
@@ -3500,7 +3506,7 @@
         <v>55</v>
       </c>
       <c r="J39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K39" t="s">
         <v>55</v>
@@ -3518,19 +3524,19 @@
         <v>55</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R39" t="s">
         <v>12</v>
       </c>
       <c r="S39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>35</v>
       </c>
@@ -3538,13 +3544,13 @@
         <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>182</v>
+        <v>331</v>
       </c>
       <c r="D40" t="s">
         <v>55</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="F40" t="s">
         <v>55</v>
@@ -3559,7 +3565,7 @@
         <v>55</v>
       </c>
       <c r="J40" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="K40" t="s">
         <v>55</v>
@@ -3568,28 +3574,28 @@
         <v>55</v>
       </c>
       <c r="M40" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="N40" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="O40" t="s">
         <v>55</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="Q40" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="R40" t="s">
         <v>12</v>
       </c>
       <c r="S40" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>36</v>
       </c>
@@ -3597,58 +3603,58 @@
         <v>55</v>
       </c>
       <c r="C41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" t="s">
+        <v>178</v>
+      </c>
+      <c r="K41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" t="s">
         <v>182</v>
       </c>
-      <c r="D41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I41" t="s">
-        <v>55</v>
-      </c>
-      <c r="J41" t="s">
-        <v>179</v>
-      </c>
-      <c r="K41" t="s">
-        <v>55</v>
-      </c>
-      <c r="L41" t="s">
-        <v>55</v>
-      </c>
-      <c r="M41" t="s">
-        <v>55</v>
-      </c>
       <c r="N41" t="s">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="O41" t="s">
         <v>55</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R41" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="S41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>37</v>
       </c>
@@ -3656,7 +3662,7 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D42" t="s">
         <v>55</v>
@@ -3677,37 +3683,37 @@
         <v>55</v>
       </c>
       <c r="J42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K42" t="s">
         <v>55</v>
       </c>
       <c r="L42" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="M42" t="s">
+        <v>55</v>
+      </c>
+      <c r="N42" t="s">
+        <v>185</v>
+      </c>
+      <c r="O42" t="s">
+        <v>55</v>
+      </c>
+      <c r="P42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q42" t="s">
         <v>183</v>
       </c>
-      <c r="N42" t="s">
-        <v>55</v>
-      </c>
-      <c r="O42" t="s">
-        <v>55</v>
-      </c>
-      <c r="P42" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>191</v>
-      </c>
       <c r="R42" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="S42" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>38</v>
       </c>
@@ -3715,58 +3721,58 @@
         <v>55</v>
       </c>
       <c r="C43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" t="s">
+        <v>178</v>
+      </c>
+      <c r="K43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" t="s">
+        <v>187</v>
+      </c>
+      <c r="M43" t="s">
+        <v>182</v>
+      </c>
+      <c r="N43" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" t="s">
+        <v>55</v>
+      </c>
+      <c r="P43" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q43" t="s">
         <v>190</v>
       </c>
-      <c r="D43" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" t="s">
-        <v>55</v>
-      </c>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-      <c r="I43" t="s">
-        <v>55</v>
-      </c>
-      <c r="J43" t="s">
-        <v>179</v>
-      </c>
-      <c r="K43" t="s">
-        <v>55</v>
-      </c>
-      <c r="L43" t="s">
-        <v>188</v>
-      </c>
-      <c r="M43" t="s">
-        <v>55</v>
-      </c>
-      <c r="N43" t="s">
-        <v>186</v>
-      </c>
-      <c r="O43" t="s">
-        <v>55</v>
-      </c>
-      <c r="P43" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>191</v>
-      </c>
       <c r="R43" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="S43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>39</v>
       </c>
@@ -3774,58 +3780,58 @@
         <v>55</v>
       </c>
       <c r="C44" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" t="s">
+        <v>178</v>
+      </c>
+      <c r="K44" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" t="s">
+        <v>187</v>
+      </c>
+      <c r="M44" t="s">
+        <v>55</v>
+      </c>
+      <c r="N44" t="s">
+        <v>185</v>
+      </c>
+      <c r="O44" t="s">
+        <v>55</v>
+      </c>
+      <c r="P44" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q44" t="s">
         <v>190</v>
       </c>
-      <c r="D44" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" t="s">
-        <v>55</v>
-      </c>
-      <c r="I44" t="s">
-        <v>55</v>
-      </c>
-      <c r="J44" t="s">
-        <v>192</v>
-      </c>
-      <c r="K44" t="s">
-        <v>55</v>
-      </c>
-      <c r="L44" t="s">
-        <v>55</v>
-      </c>
-      <c r="M44" t="s">
-        <v>193</v>
-      </c>
-      <c r="N44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O44" t="s">
-        <v>55</v>
-      </c>
-      <c r="P44" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>191</v>
-      </c>
       <c r="R44" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="S44" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>40</v>
       </c>
@@ -3833,7 +3839,7 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D45" t="s">
         <v>55</v>
@@ -3854,7 +3860,7 @@
         <v>55</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="K45" t="s">
         <v>55</v>
@@ -3863,7 +3869,7 @@
         <v>55</v>
       </c>
       <c r="M45" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N45" t="s">
         <v>55</v>
@@ -3872,19 +3878,19 @@
         <v>55</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q45" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="R45" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="S45" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>41</v>
       </c>
@@ -3892,7 +3898,7 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D46" t="s">
         <v>55</v>
@@ -3922,28 +3928,28 @@
         <v>55</v>
       </c>
       <c r="M46" t="s">
+        <v>194</v>
+      </c>
+      <c r="N46" t="s">
+        <v>55</v>
+      </c>
+      <c r="O46" t="s">
+        <v>55</v>
+      </c>
+      <c r="P46" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q46" t="s">
         <v>195</v>
       </c>
-      <c r="N46" t="s">
-        <v>55</v>
-      </c>
-      <c r="O46" t="s">
-        <v>55</v>
-      </c>
-      <c r="P46" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>196</v>
-      </c>
       <c r="R46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>42</v>
       </c>
@@ -3951,7 +3957,7 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D47" t="s">
         <v>55</v>
@@ -3972,7 +3978,7 @@
         <v>55</v>
       </c>
       <c r="J47" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="K47" t="s">
         <v>55</v>
@@ -3981,7 +3987,7 @@
         <v>55</v>
       </c>
       <c r="M47" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N47" t="s">
         <v>55</v>
@@ -3990,19 +3996,19 @@
         <v>55</v>
       </c>
       <c r="P47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S47" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>43</v>
       </c>
@@ -4010,13 +4016,13 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>199</v>
       </c>
       <c r="D48" t="s">
         <v>55</v>
       </c>
       <c r="E48" t="s">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s">
         <v>55</v>
@@ -4031,7 +4037,7 @@
         <v>55</v>
       </c>
       <c r="J48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K48" t="s">
         <v>55</v>
@@ -4040,28 +4046,28 @@
         <v>55</v>
       </c>
       <c r="M48" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N48" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="O48" t="s">
         <v>55</v>
       </c>
       <c r="P48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q48" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="R48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S48" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>44</v>
       </c>
@@ -4069,13 +4075,13 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
         <v>55</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="F49" t="s">
         <v>55</v>
@@ -4090,7 +4096,7 @@
         <v>55</v>
       </c>
       <c r="J49" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="K49" t="s">
         <v>55</v>
@@ -4099,28 +4105,28 @@
         <v>55</v>
       </c>
       <c r="M49" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="N49" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="O49" t="s">
         <v>55</v>
       </c>
       <c r="P49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q49" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="R49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S49" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>45</v>
       </c>
@@ -4128,13 +4134,13 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="D50" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>206</v>
+      <c r="E50" t="s">
+        <v>55</v>
       </c>
       <c r="F50" t="s">
         <v>55</v>
@@ -4149,7 +4155,7 @@
         <v>55</v>
       </c>
       <c r="J50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K50" t="s">
         <v>55</v>
@@ -4158,28 +4164,28 @@
         <v>55</v>
       </c>
       <c r="M50" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N50" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="O50" t="s">
         <v>55</v>
       </c>
       <c r="P50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q50" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="R50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>46</v>
       </c>
@@ -4187,13 +4193,13 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>297</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
         <v>55</v>
       </c>
-      <c r="E51" t="s">
-        <v>146</v>
+      <c r="E51" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="F51" t="s">
         <v>55</v>
@@ -4202,13 +4208,13 @@
         <v>55</v>
       </c>
       <c r="H51" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="I51" t="s">
         <v>55</v>
       </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="K51" t="s">
         <v>55</v>
@@ -4220,25 +4226,25 @@
         <v>55</v>
       </c>
       <c r="N51" t="s">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="O51" t="s">
         <v>55</v>
       </c>
       <c r="P51" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="Q51" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="R51" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="S51" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>47</v>
       </c>
@@ -4246,28 +4252,28 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>294</v>
       </c>
       <c r="D52" t="s">
         <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
-        <v>310</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s">
         <v>55</v>
       </c>
       <c r="H52" t="s">
-        <v>55</v>
+        <v>206</v>
       </c>
       <c r="I52" t="s">
         <v>55</v>
       </c>
       <c r="J52" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="K52" t="s">
         <v>55</v>
@@ -4279,7 +4285,7 @@
         <v>55</v>
       </c>
       <c r="N52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O52" t="s">
         <v>55</v>
@@ -4294,10 +4300,10 @@
         <v>12</v>
       </c>
       <c r="S52" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>48</v>
       </c>
@@ -4314,7 +4320,7 @@
         <v>55</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
+        <v>307</v>
       </c>
       <c r="G53" t="s">
         <v>55</v>
@@ -4326,7 +4332,7 @@
         <v>55</v>
       </c>
       <c r="J53" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K53" t="s">
         <v>55</v>
@@ -4335,28 +4341,28 @@
         <v>55</v>
       </c>
       <c r="M53" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="N53" t="s">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="O53" t="s">
         <v>55</v>
       </c>
       <c r="P53" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="Q53" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="R53" t="s">
         <v>12</v>
       </c>
       <c r="S53" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>49</v>
       </c>
@@ -4385,7 +4391,7 @@
         <v>55</v>
       </c>
       <c r="J54" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K54" t="s">
         <v>55</v>
@@ -4394,7 +4400,7 @@
         <v>55</v>
       </c>
       <c r="M54" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="N54" t="s">
         <v>55</v>
@@ -4403,19 +4409,19 @@
         <v>55</v>
       </c>
       <c r="P54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R54" t="s">
         <v>12</v>
       </c>
       <c r="S54" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>50</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>55</v>
       </c>
       <c r="J55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K55" t="s">
         <v>55</v>
@@ -4453,7 +4459,7 @@
         <v>55</v>
       </c>
       <c r="M55" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="N55" t="s">
         <v>55</v>
@@ -4462,19 +4468,19 @@
         <v>55</v>
       </c>
       <c r="P55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q55" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="R55" t="s">
         <v>12</v>
       </c>
       <c r="S55" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>51</v>
       </c>
@@ -4488,52 +4494,52 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56" t="s">
+        <v>55</v>
+      </c>
+      <c r="I56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" t="s">
+        <v>213</v>
+      </c>
+      <c r="K56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L56" t="s">
+        <v>55</v>
+      </c>
+      <c r="M56" t="s">
         <v>215</v>
       </c>
-      <c r="F56" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" t="s">
-        <v>55</v>
-      </c>
-      <c r="H56" t="s">
-        <v>55</v>
-      </c>
-      <c r="I56" t="s">
-        <v>55</v>
-      </c>
-      <c r="J56" t="s">
-        <v>55</v>
-      </c>
-      <c r="K56" t="s">
-        <v>55</v>
-      </c>
-      <c r="L56" t="s">
-        <v>55</v>
-      </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
+        <v>55</v>
+      </c>
+      <c r="O56" t="s">
+        <v>55</v>
+      </c>
+      <c r="P56" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q56" t="s">
         <v>216</v>
-      </c>
-      <c r="N56" t="s">
-        <v>55</v>
-      </c>
-      <c r="O56" t="s">
-        <v>55</v>
-      </c>
-      <c r="P56" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>217</v>
       </c>
       <c r="R56" t="s">
         <v>12</v>
       </c>
       <c r="S56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>52</v>
       </c>
@@ -4547,7 +4553,7 @@
         <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="F57" t="s">
         <v>55</v>
@@ -4562,7 +4568,7 @@
         <v>55</v>
       </c>
       <c r="J57" t="s">
-        <v>269</v>
+        <v>55</v>
       </c>
       <c r="K57" t="s">
         <v>55</v>
@@ -4571,7 +4577,7 @@
         <v>55</v>
       </c>
       <c r="M57" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="N57" t="s">
         <v>55</v>
@@ -4580,19 +4586,19 @@
         <v>55</v>
       </c>
       <c r="P57" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Q57" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="R57" t="s">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="S57" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>53</v>
       </c>
@@ -4621,7 +4627,7 @@
         <v>55</v>
       </c>
       <c r="J58" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K58" t="s">
         <v>55</v>
@@ -4630,7 +4636,7 @@
         <v>55</v>
       </c>
       <c r="M58" t="s">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="N58" t="s">
         <v>55</v>
@@ -4642,16 +4648,16 @@
         <v>82</v>
       </c>
       <c r="Q58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R58" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S58" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>54</v>
       </c>
@@ -4680,7 +4686,7 @@
         <v>55</v>
       </c>
       <c r="J59" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="K59" t="s">
         <v>55</v>
@@ -4689,7 +4695,7 @@
         <v>55</v>
       </c>
       <c r="M59" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="N59" t="s">
         <v>55</v>
@@ -4701,16 +4707,16 @@
         <v>82</v>
       </c>
       <c r="Q59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R59" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S59" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>55</v>
       </c>
@@ -4739,7 +4745,7 @@
         <v>55</v>
       </c>
       <c r="J60" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="K60" t="s">
         <v>55</v>
@@ -4748,7 +4754,7 @@
         <v>55</v>
       </c>
       <c r="M60" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="N60" t="s">
         <v>55</v>
@@ -4760,16 +4766,16 @@
         <v>82</v>
       </c>
       <c r="Q60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R60" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S60" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>56</v>
       </c>
@@ -4798,7 +4804,7 @@
         <v>55</v>
       </c>
       <c r="J61" t="s">
-        <v>271</v>
+        <v>329</v>
       </c>
       <c r="K61" t="s">
         <v>55</v>
@@ -4807,7 +4813,7 @@
         <v>55</v>
       </c>
       <c r="M61" t="s">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="N61" t="s">
         <v>55</v>
@@ -4819,16 +4825,16 @@
         <v>82</v>
       </c>
       <c r="Q61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R61" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S61" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>57</v>
       </c>
@@ -4857,7 +4863,7 @@
         <v>55</v>
       </c>
       <c r="J62" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K62" t="s">
         <v>55</v>
@@ -4866,7 +4872,7 @@
         <v>55</v>
       </c>
       <c r="M62" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="N62" t="s">
         <v>55</v>
@@ -4878,16 +4884,16 @@
         <v>82</v>
       </c>
       <c r="Q62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R62" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S62" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>58</v>
       </c>
@@ -4916,7 +4922,7 @@
         <v>55</v>
       </c>
       <c r="J63" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K63" t="s">
         <v>55</v>
@@ -4925,7 +4931,7 @@
         <v>55</v>
       </c>
       <c r="M63" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="N63" t="s">
         <v>55</v>
@@ -4937,16 +4943,16 @@
         <v>82</v>
       </c>
       <c r="Q63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R63" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S63" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>59</v>
       </c>
@@ -4975,7 +4981,7 @@
         <v>55</v>
       </c>
       <c r="J64" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K64" t="s">
         <v>55</v>
@@ -4984,7 +4990,7 @@
         <v>55</v>
       </c>
       <c r="M64" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="N64" t="s">
         <v>55</v>
@@ -4996,16 +5002,16 @@
         <v>82</v>
       </c>
       <c r="Q64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R64" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S64" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>60</v>
       </c>
@@ -5034,7 +5040,7 @@
         <v>55</v>
       </c>
       <c r="J65" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K65" t="s">
         <v>55</v>
@@ -5043,7 +5049,7 @@
         <v>55</v>
       </c>
       <c r="M65" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N65" t="s">
         <v>55</v>
@@ -5055,16 +5061,16 @@
         <v>82</v>
       </c>
       <c r="Q65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R65" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S65" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>61</v>
       </c>
@@ -5093,7 +5099,7 @@
         <v>55</v>
       </c>
       <c r="J66" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="K66" t="s">
         <v>55</v>
@@ -5102,7 +5108,7 @@
         <v>55</v>
       </c>
       <c r="M66" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="N66" t="s">
         <v>55</v>
@@ -5114,16 +5120,16 @@
         <v>82</v>
       </c>
       <c r="Q66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R66" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S66" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>62</v>
       </c>
@@ -5152,7 +5158,7 @@
         <v>55</v>
       </c>
       <c r="J67" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="K67" t="s">
         <v>55</v>
@@ -5161,7 +5167,7 @@
         <v>55</v>
       </c>
       <c r="M67" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N67" t="s">
         <v>55</v>
@@ -5173,16 +5179,16 @@
         <v>82</v>
       </c>
       <c r="Q67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R67" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S67" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>63</v>
       </c>
@@ -5211,7 +5217,7 @@
         <v>55</v>
       </c>
       <c r="J68" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K68" t="s">
         <v>55</v>
@@ -5220,7 +5226,7 @@
         <v>55</v>
       </c>
       <c r="M68" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="N68" t="s">
         <v>55</v>
@@ -5232,16 +5238,16 @@
         <v>82</v>
       </c>
       <c r="Q68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R68" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S68" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>64</v>
       </c>
@@ -5270,7 +5276,7 @@
         <v>55</v>
       </c>
       <c r="J69" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K69" t="s">
         <v>55</v>
@@ -5279,7 +5285,7 @@
         <v>55</v>
       </c>
       <c r="M69" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="N69" t="s">
         <v>55</v>
@@ -5291,16 +5297,16 @@
         <v>82</v>
       </c>
       <c r="Q69" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="R69" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S69" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>65</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>55</v>
       </c>
       <c r="J70" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K70" t="s">
         <v>55</v>
@@ -5338,7 +5344,7 @@
         <v>55</v>
       </c>
       <c r="M70" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N70" t="s">
         <v>55</v>
@@ -5350,16 +5356,16 @@
         <v>82</v>
       </c>
       <c r="Q70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R70" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S70" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>66</v>
       </c>
@@ -5388,7 +5394,7 @@
         <v>55</v>
       </c>
       <c r="J71" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K71" t="s">
         <v>55</v>
@@ -5397,7 +5403,7 @@
         <v>55</v>
       </c>
       <c r="M71" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="N71" t="s">
         <v>55</v>
@@ -5409,16 +5415,16 @@
         <v>82</v>
       </c>
       <c r="Q71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R71" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S71" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>67</v>
       </c>
@@ -5447,7 +5453,7 @@
         <v>55</v>
       </c>
       <c r="J72" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="K72" t="s">
         <v>55</v>
@@ -5456,7 +5462,7 @@
         <v>55</v>
       </c>
       <c r="M72" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="N72" t="s">
         <v>55</v>
@@ -5468,16 +5474,16 @@
         <v>82</v>
       </c>
       <c r="Q72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R72" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S72" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>68</v>
       </c>
@@ -5506,7 +5512,7 @@
         <v>55</v>
       </c>
       <c r="J73" t="s">
-        <v>263</v>
+        <v>330</v>
       </c>
       <c r="K73" t="s">
         <v>55</v>
@@ -5515,7 +5521,7 @@
         <v>55</v>
       </c>
       <c r="M73" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N73" t="s">
         <v>55</v>
@@ -5527,16 +5533,16 @@
         <v>82</v>
       </c>
       <c r="Q73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R73" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S73" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>69</v>
       </c>
@@ -5565,7 +5571,7 @@
         <v>55</v>
       </c>
       <c r="J74" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K74" t="s">
         <v>55</v>
@@ -5574,7 +5580,7 @@
         <v>55</v>
       </c>
       <c r="M74" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="N74" t="s">
         <v>55</v>
@@ -5586,16 +5592,16 @@
         <v>82</v>
       </c>
       <c r="Q74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R74" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S74" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>70</v>
       </c>
@@ -5624,7 +5630,7 @@
         <v>55</v>
       </c>
       <c r="J75" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K75" t="s">
         <v>55</v>
@@ -5633,7 +5639,7 @@
         <v>55</v>
       </c>
       <c r="M75" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="N75" t="s">
         <v>55</v>
@@ -5645,16 +5651,16 @@
         <v>82</v>
       </c>
       <c r="Q75" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R75" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S75" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>71</v>
       </c>
@@ -5683,7 +5689,7 @@
         <v>55</v>
       </c>
       <c r="J76" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="K76" t="s">
         <v>55</v>
@@ -5692,7 +5698,7 @@
         <v>55</v>
       </c>
       <c r="M76" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="N76" t="s">
         <v>55</v>
@@ -5704,16 +5710,16 @@
         <v>82</v>
       </c>
       <c r="Q76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R76" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S76" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>72</v>
       </c>
@@ -5742,7 +5748,7 @@
         <v>55</v>
       </c>
       <c r="J77" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K77" t="s">
         <v>55</v>
@@ -5751,7 +5757,7 @@
         <v>55</v>
       </c>
       <c r="M77" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="N77" t="s">
         <v>55</v>
@@ -5763,16 +5769,16 @@
         <v>82</v>
       </c>
       <c r="Q77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R77" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S77" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>73</v>
       </c>
@@ -5801,7 +5807,7 @@
         <v>55</v>
       </c>
       <c r="J78" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K78" t="s">
         <v>55</v>
@@ -5810,7 +5816,7 @@
         <v>55</v>
       </c>
       <c r="M78" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="N78" t="s">
         <v>55</v>
@@ -5822,16 +5828,16 @@
         <v>82</v>
       </c>
       <c r="Q78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R78" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S78" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>74</v>
       </c>
@@ -5860,7 +5866,7 @@
         <v>55</v>
       </c>
       <c r="J79" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K79" t="s">
         <v>55</v>
@@ -5869,7 +5875,7 @@
         <v>55</v>
       </c>
       <c r="M79" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N79" t="s">
         <v>55</v>
@@ -5881,16 +5887,16 @@
         <v>82</v>
       </c>
       <c r="Q79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R79" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S79" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>75</v>
       </c>
@@ -5919,7 +5925,7 @@
         <v>55</v>
       </c>
       <c r="J80" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K80" t="s">
         <v>55</v>
@@ -5928,7 +5934,7 @@
         <v>55</v>
       </c>
       <c r="M80" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="N80" t="s">
         <v>55</v>
@@ -5940,16 +5946,16 @@
         <v>82</v>
       </c>
       <c r="Q80" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R80" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S80" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>76</v>
       </c>
@@ -5978,7 +5984,7 @@
         <v>55</v>
       </c>
       <c r="J81" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K81" t="s">
         <v>55</v>
@@ -5987,7 +5993,7 @@
         <v>55</v>
       </c>
       <c r="M81" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="N81" t="s">
         <v>55</v>
@@ -5999,16 +6005,16 @@
         <v>82</v>
       </c>
       <c r="Q81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R81" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S81" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>77</v>
       </c>
@@ -6037,7 +6043,7 @@
         <v>55</v>
       </c>
       <c r="J82" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="K82" t="s">
         <v>55</v>
@@ -6046,7 +6052,7 @@
         <v>55</v>
       </c>
       <c r="M82" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="N82" t="s">
         <v>55</v>
@@ -6058,16 +6064,16 @@
         <v>82</v>
       </c>
       <c r="Q82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R82" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S82" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>78</v>
       </c>
@@ -6096,7 +6102,7 @@
         <v>55</v>
       </c>
       <c r="J83" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="K83" t="s">
         <v>55</v>
@@ -6105,7 +6111,7 @@
         <v>55</v>
       </c>
       <c r="M83" t="s">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="N83" t="s">
         <v>55</v>
@@ -6117,16 +6123,16 @@
         <v>82</v>
       </c>
       <c r="Q83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R83" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S83" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>79</v>
       </c>
@@ -6155,7 +6161,7 @@
         <v>55</v>
       </c>
       <c r="J84" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K84" t="s">
         <v>55</v>
@@ -6164,7 +6170,7 @@
         <v>55</v>
       </c>
       <c r="M84" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="N84" t="s">
         <v>55</v>
@@ -6176,16 +6182,16 @@
         <v>82</v>
       </c>
       <c r="Q84" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R84" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S84" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>80</v>
       </c>
@@ -6214,7 +6220,7 @@
         <v>55</v>
       </c>
       <c r="J85" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K85" t="s">
         <v>55</v>
@@ -6223,7 +6229,7 @@
         <v>55</v>
       </c>
       <c r="M85" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="N85" t="s">
         <v>55</v>
@@ -6235,16 +6241,16 @@
         <v>82</v>
       </c>
       <c r="Q85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R85" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S85" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>81</v>
       </c>
@@ -6273,7 +6279,7 @@
         <v>55</v>
       </c>
       <c r="J86" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="K86" t="s">
         <v>55</v>
@@ -6282,7 +6288,7 @@
         <v>55</v>
       </c>
       <c r="M86" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="N86" t="s">
         <v>55</v>
@@ -6294,16 +6300,16 @@
         <v>82</v>
       </c>
       <c r="Q86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R86" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S86" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>82</v>
       </c>
@@ -6332,7 +6338,7 @@
         <v>55</v>
       </c>
       <c r="J87" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K87" t="s">
         <v>55</v>
@@ -6341,7 +6347,7 @@
         <v>55</v>
       </c>
       <c r="M87" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="N87" t="s">
         <v>55</v>
@@ -6353,16 +6359,16 @@
         <v>82</v>
       </c>
       <c r="Q87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R87" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S87" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>83</v>
       </c>
@@ -6370,7 +6376,7 @@
         <v>55</v>
       </c>
       <c r="C88" t="s">
-        <v>237</v>
+        <v>55</v>
       </c>
       <c r="D88" t="s">
         <v>55</v>
@@ -6391,7 +6397,7 @@
         <v>55</v>
       </c>
       <c r="J88" t="s">
-        <v>55</v>
+        <v>264</v>
       </c>
       <c r="K88" t="s">
         <v>55</v>
@@ -6400,7 +6406,7 @@
         <v>55</v>
       </c>
       <c r="M88" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="N88" t="s">
         <v>55</v>
@@ -6412,16 +6418,16 @@
         <v>82</v>
       </c>
       <c r="Q88" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="R88" t="s">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="S88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>84</v>
       </c>
@@ -6429,7 +6435,7 @@
         <v>55</v>
       </c>
       <c r="C89" t="s">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="D89" t="s">
         <v>55</v>
@@ -6459,7 +6465,7 @@
         <v>55</v>
       </c>
       <c r="M89" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N89" t="s">
         <v>55</v>
@@ -6477,10 +6483,10 @@
         <v>12</v>
       </c>
       <c r="S89" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>85</v>
       </c>
@@ -6488,7 +6494,7 @@
         <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D90" t="s">
         <v>55</v>
@@ -6518,7 +6524,7 @@
         <v>55</v>
       </c>
       <c r="M90" t="s">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="N90" t="s">
         <v>55</v>
@@ -6536,10 +6542,10 @@
         <v>12</v>
       </c>
       <c r="S90" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>86</v>
       </c>
@@ -6547,7 +6553,7 @@
         <v>55</v>
       </c>
       <c r="C91" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="D91" t="s">
         <v>55</v>
@@ -6577,7 +6583,7 @@
         <v>55</v>
       </c>
       <c r="M91" t="s">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="N91" t="s">
         <v>55</v>
@@ -6595,10 +6601,10 @@
         <v>12</v>
       </c>
       <c r="S91" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>87</v>
       </c>
@@ -6606,7 +6612,7 @@
         <v>55</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D92" t="s">
         <v>55</v>
@@ -6636,7 +6642,7 @@
         <v>55</v>
       </c>
       <c r="M92" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="N92" t="s">
         <v>55</v>
@@ -6654,10 +6660,10 @@
         <v>12</v>
       </c>
       <c r="S92" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>88</v>
       </c>
@@ -6665,7 +6671,7 @@
         <v>55</v>
       </c>
       <c r="C93" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="D93" t="s">
         <v>55</v>
@@ -6695,7 +6701,7 @@
         <v>55</v>
       </c>
       <c r="M93" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="N93" t="s">
         <v>55</v>
@@ -6713,10 +6719,10 @@
         <v>12</v>
       </c>
       <c r="S93" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>89</v>
       </c>
@@ -6724,7 +6730,7 @@
         <v>55</v>
       </c>
       <c r="C94" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="D94" t="s">
         <v>55</v>
@@ -6754,7 +6760,7 @@
         <v>55</v>
       </c>
       <c r="M94" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="N94" t="s">
         <v>55</v>
@@ -6772,10 +6778,10 @@
         <v>12</v>
       </c>
       <c r="S94" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>90</v>
       </c>
@@ -6783,7 +6789,7 @@
         <v>55</v>
       </c>
       <c r="C95" t="s">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="D95" t="s">
         <v>55</v>
@@ -6813,7 +6819,7 @@
         <v>55</v>
       </c>
       <c r="M95" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="N95" t="s">
         <v>55</v>
@@ -6831,10 +6837,10 @@
         <v>12</v>
       </c>
       <c r="S95" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>91</v>
       </c>
@@ -6842,7 +6848,7 @@
         <v>55</v>
       </c>
       <c r="C96" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D96" t="s">
         <v>55</v>
@@ -6872,7 +6878,7 @@
         <v>55</v>
       </c>
       <c r="M96" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="N96" t="s">
         <v>55</v>
@@ -6890,10 +6896,10 @@
         <v>12</v>
       </c>
       <c r="S96" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>92</v>
       </c>
@@ -6901,7 +6907,7 @@
         <v>55</v>
       </c>
       <c r="C97" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D97" t="s">
         <v>55</v>
@@ -6931,7 +6937,7 @@
         <v>55</v>
       </c>
       <c r="M97" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="N97" t="s">
         <v>55</v>
@@ -6949,10 +6955,10 @@
         <v>12</v>
       </c>
       <c r="S97" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>93</v>
       </c>
@@ -6960,7 +6966,7 @@
         <v>55</v>
       </c>
       <c r="C98" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="D98" t="s">
         <v>55</v>
@@ -6990,7 +6996,7 @@
         <v>55</v>
       </c>
       <c r="M98" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="N98" t="s">
         <v>55</v>
@@ -7008,10 +7014,10 @@
         <v>12</v>
       </c>
       <c r="S98" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>94</v>
       </c>
@@ -7019,7 +7025,7 @@
         <v>55</v>
       </c>
       <c r="C99" t="s">
-        <v>330</v>
+        <v>243</v>
       </c>
       <c r="D99" t="s">
         <v>55</v>
@@ -7049,7 +7055,7 @@
         <v>55</v>
       </c>
       <c r="M99" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="N99" t="s">
         <v>55</v>
@@ -7067,10 +7073,10 @@
         <v>12</v>
       </c>
       <c r="S99" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>95</v>
       </c>
@@ -7078,7 +7084,7 @@
         <v>55</v>
       </c>
       <c r="C100" t="s">
-        <v>260</v>
+        <v>327</v>
       </c>
       <c r="D100" t="s">
         <v>55</v>
@@ -7108,7 +7114,7 @@
         <v>55</v>
       </c>
       <c r="M100" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="N100" t="s">
         <v>55</v>
@@ -7126,10 +7132,10 @@
         <v>12</v>
       </c>
       <c r="S100" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>96</v>
       </c>
@@ -7137,7 +7143,7 @@
         <v>55</v>
       </c>
       <c r="C101" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D101" t="s">
         <v>55</v>
@@ -7167,7 +7173,7 @@
         <v>55</v>
       </c>
       <c r="M101" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N101" t="s">
         <v>55</v>
@@ -7185,10 +7191,10 @@
         <v>12</v>
       </c>
       <c r="S101" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>97</v>
       </c>
@@ -7196,7 +7202,7 @@
         <v>55</v>
       </c>
       <c r="C102" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="D102" t="s">
         <v>55</v>
@@ -7226,7 +7232,7 @@
         <v>55</v>
       </c>
       <c r="M102" t="s">
-        <v>323</v>
+        <v>246</v>
       </c>
       <c r="N102" t="s">
         <v>55</v>
@@ -7244,10 +7250,10 @@
         <v>12</v>
       </c>
       <c r="S102" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>98</v>
       </c>
@@ -7255,7 +7261,7 @@
         <v>55</v>
       </c>
       <c r="C103" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="D103" t="s">
         <v>55</v>
@@ -7285,7 +7291,7 @@
         <v>55</v>
       </c>
       <c r="M103" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="N103" t="s">
         <v>55</v>
@@ -7303,10 +7309,10 @@
         <v>12</v>
       </c>
       <c r="S103" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>99</v>
       </c>
@@ -7314,7 +7320,7 @@
         <v>55</v>
       </c>
       <c r="C104" t="s">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="D104" t="s">
         <v>55</v>
@@ -7344,7 +7350,7 @@
         <v>55</v>
       </c>
       <c r="M104" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N104" t="s">
         <v>55</v>
@@ -7362,18 +7368,18 @@
         <v>12</v>
       </c>
       <c r="S104" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="C105" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="D105" t="s">
         <v>55</v>
@@ -7403,7 +7409,7 @@
         <v>55</v>
       </c>
       <c r="M105" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="N105" t="s">
         <v>55</v>
@@ -7421,15 +7427,15 @@
         <v>12</v>
       </c>
       <c r="S105" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="C106" t="s">
         <v>55</v>
@@ -7462,7 +7468,7 @@
         <v>55</v>
       </c>
       <c r="M106" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="N106" t="s">
         <v>55</v>
@@ -7480,15 +7486,15 @@
         <v>12</v>
       </c>
       <c r="S106" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C107" t="s">
         <v>55</v>
@@ -7521,7 +7527,7 @@
         <v>55</v>
       </c>
       <c r="M107" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="N107" t="s">
         <v>55</v>
@@ -7539,15 +7545,15 @@
         <v>12</v>
       </c>
       <c r="S107" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C108" t="s">
         <v>55</v>
@@ -7580,7 +7586,7 @@
         <v>55</v>
       </c>
       <c r="M108" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="N108" t="s">
         <v>55</v>
@@ -7598,15 +7604,15 @@
         <v>12</v>
       </c>
       <c r="S108" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C109" t="s">
         <v>55</v>
@@ -7639,7 +7645,7 @@
         <v>55</v>
       </c>
       <c r="M109" t="s">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="N109" t="s">
         <v>55</v>
@@ -7657,15 +7663,15 @@
         <v>12</v>
       </c>
       <c r="S109" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>105</v>
       </c>
       <c r="B110" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C110" t="s">
         <v>55</v>
@@ -7698,7 +7704,7 @@
         <v>55</v>
       </c>
       <c r="M110" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N110" t="s">
         <v>55</v>
@@ -7716,18 +7722,18 @@
         <v>12</v>
       </c>
       <c r="S110" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>55</v>
+        <v>335</v>
       </c>
       <c r="C111" t="s">
-        <v>292</v>
+        <v>55</v>
       </c>
       <c r="D111" t="s">
         <v>55</v>
@@ -7757,7 +7763,7 @@
         <v>55</v>
       </c>
       <c r="M111" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="N111" t="s">
         <v>55</v>
@@ -7775,18 +7781,18 @@
         <v>12</v>
       </c>
       <c r="S111" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="C112" t="s">
-        <v>55</v>
+        <v>289</v>
       </c>
       <c r="D112" t="s">
         <v>55</v>
@@ -7816,7 +7822,7 @@
         <v>55</v>
       </c>
       <c r="M112" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="N112" t="s">
         <v>55</v>
@@ -7834,69 +7840,69 @@
         <v>12</v>
       </c>
       <c r="S112" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J113" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="K113" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L113" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M113" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N113" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O113" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P113" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q113" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="R113" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>108</v>
+      </c>
+      <c r="B113" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" t="s">
+        <v>55</v>
+      </c>
+      <c r="D113" t="s">
+        <v>55</v>
+      </c>
+      <c r="E113" t="s">
+        <v>55</v>
+      </c>
+      <c r="F113" t="s">
+        <v>55</v>
+      </c>
+      <c r="G113" t="s">
+        <v>55</v>
+      </c>
+      <c r="H113" t="s">
+        <v>55</v>
+      </c>
+      <c r="I113" t="s">
+        <v>55</v>
+      </c>
+      <c r="J113" t="s">
+        <v>55</v>
+      </c>
+      <c r="K113" t="s">
+        <v>55</v>
+      </c>
+      <c r="L113" t="s">
+        <v>55</v>
+      </c>
+      <c r="M113" t="s">
+        <v>131</v>
+      </c>
+      <c r="N113" t="s">
+        <v>55</v>
+      </c>
+      <c r="O113" t="s">
+        <v>55</v>
+      </c>
+      <c r="P113" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>83</v>
+      </c>
+      <c r="R113" t="s">
         <v>12</v>
       </c>
-      <c r="S113" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="S113" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>-1</v>
       </c>
@@ -7925,7 +7931,7 @@
         <v>55</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>55</v>
@@ -7934,25 +7940,84 @@
         <v>55</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="O114" s="5" t="s">
         <v>55</v>
       </c>
       <c r="P114" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q114" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="R114" s="5" t="s">
         <v>12</v>
       </c>
       <c r="S114" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A115" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="O115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P115" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q115" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="R115" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S115" s="5" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -7969,9 +8034,9 @@
       <selection activeCell="A31" sqref="A30:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7984,7 +8049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -8031,7 +8096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -8075,7 +8140,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8119,7 +8184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -8160,7 +8225,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -8201,7 +8266,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -8239,7 +8304,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -8280,7 +8345,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>52</v>
       </c>
@@ -8318,7 +8383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -8359,7 +8424,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -8397,7 +8462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>

--- a/_build/utils/dm-dependencies/resources/non_dm_rules.xlsx
+++ b/_build/utils/dm-dependencies/resources/non_dm_rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Corpora\GUM\github\_build\utils\dm-dependencies\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Corpora\GUM\GENTLE\repo\_build\utils\dm-dependencies\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AECC1F3-C3E7-4361-B4E1-234C9CD14A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0F80A4-2BB4-4A5E-8662-6895E22EF21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BF4EFA19-1866-4339-A4F4-33A768915554}"/>
+    <workbookView xWindow="6830" yWindow="340" windowWidth="18770" windowHeight="14520" xr2:uid="{BF4EFA19-1866-4339-A4F4-33A768915554}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="339">
   <si>
     <t>satellite</t>
   </si>
@@ -898,9 +898,6 @@
     <t>now</t>
   </si>
   <si>
-    <t>(love|hope|feel|look|seem|appreciate|regret|suck|sound|thank|support|surprise|resonate|mean|hate|like|sigh|agree|alarm|amaze|enjoy|frown|applaud|believe|welcome|honor|honour|matter|advise|laugh)</t>
-  </si>
-  <si>
     <t>(not|never)</t>
   </si>
   <si>
@@ -994,9 +991,6 @@
     <t>(aim|purpose|goal|achieve|prevent|stop|avoid|eliminate)</t>
   </si>
   <si>
-    <t>gram=(laid_-_back|self_-_loathing|within_our_reach|can_not_wait|mind_blowing|sore_spot|must_be|freak_out|no_choice)_</t>
-  </si>
-  <si>
     <t>Numerical=Yes</t>
   </si>
   <si>
@@ -1012,9 +1006,6 @@
     <t>(consider|P\.?S\.?|sincerely)</t>
   </si>
   <si>
-    <t>$attrib_verb = (accept|acknowledge|add|admit|afraid|agree|announce|argue|ask|assert|assess|assume|assure|aware|believe|bet|call|certain|chant|check|claim|comment|complain|concern|conclude|confirm|convince|cry|decide|declare|determine|disappoint|discover|discuss|doubt|dream|emphasize|ensure|establish|estimate|exclaim|expect|explain|express|feel|figure|find|forget|gather|glad|guess|happy|hear|hope|hypothesize|imagine|imply|indicate|inform|know|learn|lie|maintain|mean|mention|mindful|note|notice|observe|pant|perceive|point|posit|pray|predict|presume|promise|propose|proud|quote|re-iterate|read|realise|realize|reason|recall|recognize|recommend|reiterate|remember|remind|reply|report|resent|reveal|rule|say|scream|see|shout|show|shrug|sing|snap|start|state|suggest|summarize|suppose|sure|surprise|surprised|suspect|swear|tell|terrify|think|tweet|understand|vlog|whisper|wish|witness|wonder|worry|write|be%like|go%say|keep%mind|bear%mind|make%sure)</t>
-  </si>
-  <si>
     <t>gram=(result_from|owe_to|as_such|that_make|give_rise|lead_to)_</t>
   </si>
   <si>
@@ -1036,10 +1027,22 @@
     <t>(?i)(considering)</t>
   </si>
   <si>
-    <t>(accurate|aggressive|amazing|attractive|awesome|awful|bad|beautiful|big|cathartic|cautionary|clean|clear|complicated|considerable|cool|correct|crazy|critical|cute|dark|decent|different|difficult|dreadful|easy|efficient|enough|essential|excellent|excited|exciting|false|fantastic|fine|frightful|froughtful|fun|fundamental|funny|glad|goddamn|good|great|gross|happy|hard|heady|healthy|heartwarming|high|historic|honest|ideal|important|inaccurate|insane|interesting|large|legendary|likely|long|low|lucky|magnificent|militant|natural|necessary|needy|nice|normal|okay|peaceful|perfect|pleasant|possible|practical|pretty|proud|rare|real|realistic|reliable|remarkable|right|sad|safe|same|scared|scary|scenic|significant|small|smart|solid|sorry|special|strange|strong|stupid|sure|surprising|sweet|tame|tired|toxic|trash|tremendous|true|unlikely|unpalatable|unprecedented|useful|valuable|versatile|warm|weird|wild|wild|wonderful|worth|wrong)</t>
-  </si>
-  <si>
-    <t>(doubtless|fun|importantly|loser|probably|shit|strangely|oddly|fuck|hopefully|fortunately|unfortunately|fucking|proble-|problem|lol|oWo|:/|:\)|:\(|;\)|best|:-\)|:-\(|interestingly|striking|very|extremely|highly|exceptionally|extraordinarily|masterpiece|top|milestone|sadness|excitement|ew|yikes|yay|whoa|delight|hard|legend)</t>
+    <t>First=EDU</t>
+  </si>
+  <si>
+    <t>gram=(can_not_wait|ca_n't_wait|commanding_lead|God_forbid|laid_-_back|mind_blowing|must_be|self_-_loathing|should_have|sore_spot|stacks_up|within_our_reach|freak_out|no_choice|no_joke)_</t>
+  </si>
+  <si>
+    <t>(advise|feel|love|hope|kid|look|seem|appreciate|regret|suck|sound|thank|support|surprise|resonate|mean|hate|like|sigh|agree|alarm|amaze|enjoy|frown|applaud|believe|welcome|honor|honour|matter|laugh|marvel)</t>
+  </si>
+  <si>
+    <t>(BS|doubtless|evil|fortunately|fuck|fucking|fun|hopefully|importantly|loser|oddly|probably|shit|strangely|top|justly|unfortunately|pissed|proble-|problem|lol|oWo|:/|:\)|:\(|;\)|best|:-\)|:-\(|interestingly|striking|very|extremely|highly|exceptionally|extraordinarily|masterpiece|top|milestone|sadness|excitement|ew|yikes|yay|whoa|delight|hard|legend|yes)</t>
+  </si>
+  <si>
+    <t>$attrib_verb = (accept|acknowledge|add|admit|afraid|agree|announce|argue|ask|assert|assess|assume|assure|aware|believe|bet|call|care|certain|chant|check|claim|comment|complain|concern|conclude|confirm|convince|cry|decide|declare|determine|disappoint|discover|discuss|doubt|dream|emphasize|ensure|establish|estimate|exclaim|expect|explain|express|feel|figure|find|forget|gather|glad|guarantee|guess|happy|hear|hold|hope|hypothesize|imagine|implore|imply|indicate|inform|know|learn|lie|maintain|mean|mention|mindful|mutter|note|notice|observe|pant|perceive|point|posit|pray|predict|presume|promise|propose|proud|quote|quoth|re-iterate|read|realise|realize|reason|recall|recognize|recommend|reiterate|remember|remind|repeat|reply|report|resent|reveal|rule|say|scream|see|shout|show|shriek|shrug|sing|snap|start|state|stunned|suggest|summarize|suppose|sure|surprise|surprised|suspect|swear|tell|terrify|think|trust|tweet|understand|vlog|whisper|wish|witness|wonder|worry|write|be%like|go%say|keep%mind|bear%mind|make%sure)</t>
+  </si>
+  <si>
+    <t>(accurate|aggressive|amaze|amazing|attractive|awesome|awful|bad|beautiful|big|cathartic|cautionary|clean|clear|commendable|complicated|considerable|cool|correct|crazy|critical|cute|dark|decent|different|difficult|dreadful|easy|efficient|enough|essential|excellent|excited|exciting|false|fantastic|fine|frightful|froughtful|frustrate|fun|fundamental|funny|glad|goddamn|good|great|gross|happy|hard|heady|healthy|heartwarming|high|historic|honest|ideal|important|inaccurate|incorrect|insane|interesting|large|legendary|likely|long|low|lucky|magnificent|militant|natural|necessary|needy|nice|normal|okay|peaceful|perfect|pleasant|possible|practical|pretty|proud|rare|real|realistic|reliable|remarkable|right|sad|safe|same|scared|scary|scenic|significant|simple|small|smart|solid|sorry|special|strange|strong|stun|stunned|stupid|sure|surpries|surprising|sweet|tame|tired|toxic|trash|tremendous|true|unbelievable|unlikely|unnatural|unpalatable|unprecedented|useful|valuable|versatile|violent|warm|weird|wild|wild|wonderful|worth|wrong)</t>
   </si>
 </sst>
 </file>
@@ -1425,15 +1428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFA5BF6-386C-4E06-8AEF-60CB8C63BD33}">
-  <dimension ref="A1:S115"/>
+  <dimension ref="A1:S116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.453125" customWidth="1"/>
     <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.453125" customWidth="1"/>
@@ -1511,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -1527,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -1656,13 +1659,13 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
         <v>314</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>315</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
@@ -1671,7 +1674,7 @@
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I8" t="s">
         <v>55</v>
@@ -1704,7 +1707,7 @@
         <v>12</v>
       </c>
       <c r="S8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -1913,7 +1916,7 @@
         <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K12" t="s">
         <v>55</v>
@@ -1922,7 +1925,7 @@
         <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N12" t="s">
         <v>55</v>
@@ -1957,7 +1960,7 @@
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
@@ -1972,7 +1975,7 @@
         <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K13" t="s">
         <v>55</v>
@@ -1981,7 +1984,7 @@
         <v>55</v>
       </c>
       <c r="M13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N13" t="s">
         <v>55</v>
@@ -1993,13 +1996,13 @@
         <v>13</v>
       </c>
       <c r="Q13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R13" t="s">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -2010,7 +2013,7 @@
         <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -2069,7 +2072,7 @@
         <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
@@ -2128,7 +2131,7 @@
         <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
@@ -2187,7 +2190,7 @@
         <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D17" t="s">
         <v>55</v>
@@ -2229,7 +2232,7 @@
         <v>38</v>
       </c>
       <c r="Q17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R17" t="s">
         <v>12</v>
@@ -2320,13 +2323,13 @@
         <v>55</v>
       </c>
       <c r="H19" t="s">
+        <v>317</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
         <v>318</v>
-      </c>
-      <c r="I19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" t="s">
-        <v>319</v>
       </c>
       <c r="K19" t="s">
         <v>55</v>
@@ -2503,10 +2506,10 @@
         <v>55</v>
       </c>
       <c r="J22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L22" t="s">
         <v>55</v>
@@ -2530,7 +2533,7 @@
         <v>12</v>
       </c>
       <c r="S22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -2538,7 +2541,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C23" t="s">
         <v>55</v>
@@ -2836,7 +2839,7 @@
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
@@ -3034,7 +3037,7 @@
         <v>55</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K31" t="s">
         <v>55</v>
@@ -3308,7 +3311,7 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D36" t="s">
         <v>55</v>
@@ -3544,7 +3547,7 @@
         <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D40" t="s">
         <v>55</v>
@@ -3592,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="S40" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
@@ -4252,7 +4255,7 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D52" t="s">
         <v>55</v>
@@ -4320,7 +4323,7 @@
         <v>55</v>
       </c>
       <c r="F53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G53" t="s">
         <v>55</v>
@@ -4359,7 +4362,7 @@
         <v>12</v>
       </c>
       <c r="S53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
@@ -4804,7 +4807,7 @@
         <v>55</v>
       </c>
       <c r="J61" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K61" t="s">
         <v>55</v>
@@ -5512,7 +5515,7 @@
         <v>55</v>
       </c>
       <c r="J73" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K73" t="s">
         <v>55</v>
@@ -6102,7 +6105,7 @@
         <v>55</v>
       </c>
       <c r="J83" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="K83" t="s">
         <v>55</v>
@@ -6494,7 +6497,7 @@
         <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D90" t="s">
         <v>55</v>
@@ -6553,7 +6556,7 @@
         <v>55</v>
       </c>
       <c r="C91" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D91" t="s">
         <v>55</v>
@@ -6730,7 +6733,7 @@
         <v>55</v>
       </c>
       <c r="C94" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D94" t="s">
         <v>55</v>
@@ -6848,7 +6851,7 @@
         <v>55</v>
       </c>
       <c r="C96" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D96" t="s">
         <v>55</v>
@@ -6907,7 +6910,7 @@
         <v>55</v>
       </c>
       <c r="C97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D97" t="s">
         <v>55</v>
@@ -6966,7 +6969,7 @@
         <v>55</v>
       </c>
       <c r="C98" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D98" t="s">
         <v>55</v>
@@ -7084,7 +7087,7 @@
         <v>55</v>
       </c>
       <c r="C100" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D100" t="s">
         <v>55</v>
@@ -7261,7 +7264,7 @@
         <v>55</v>
       </c>
       <c r="C103" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D103" t="s">
         <v>55</v>
@@ -7291,7 +7294,7 @@
         <v>55</v>
       </c>
       <c r="M103" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N103" t="s">
         <v>55</v>
@@ -7435,7 +7438,7 @@
         <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C106" t="s">
         <v>55</v>
@@ -7730,7 +7733,7 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C111" t="s">
         <v>55</v>
@@ -7903,62 +7906,62 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A114" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J114" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="K114" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L114" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M114" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="N114" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O114" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P114" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q114" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="R114" s="5" t="s">
+      <c r="A114">
+        <v>109</v>
+      </c>
+      <c r="B114" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" t="s">
+        <v>55</v>
+      </c>
+      <c r="D114" t="s">
+        <v>55</v>
+      </c>
+      <c r="E114" t="s">
+        <v>122</v>
+      </c>
+      <c r="F114" t="s">
+        <v>144</v>
+      </c>
+      <c r="G114" t="s">
+        <v>55</v>
+      </c>
+      <c r="H114" t="s">
+        <v>123</v>
+      </c>
+      <c r="I114" t="s">
+        <v>55</v>
+      </c>
+      <c r="J114" t="s">
+        <v>333</v>
+      </c>
+      <c r="K114" t="s">
+        <v>55</v>
+      </c>
+      <c r="L114" t="s">
+        <v>55</v>
+      </c>
+      <c r="M114" t="s">
+        <v>251</v>
+      </c>
+      <c r="N114" t="s">
+        <v>55</v>
+      </c>
+      <c r="O114" t="s">
+        <v>55</v>
+      </c>
+      <c r="P114" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>124</v>
+      </c>
+      <c r="R114" t="s">
         <v>12</v>
       </c>
-      <c r="S114" s="5" t="s">
-        <v>326</v>
+      <c r="S114" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
@@ -7990,34 +7993,93 @@
         <v>55</v>
       </c>
       <c r="J115" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M115" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P115" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q115" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="K115" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L115" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M115" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N115" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="O115" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P115" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q115" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="R115" s="5" t="s">
         <v>12</v>
       </c>
       <c r="S115" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A116" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M116" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N116" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="O116" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P116" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q116" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="R116" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S116" s="5" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/_build/utils/dm-dependencies/resources/non_dm_rules.xlsx
+++ b/_build/utils/dm-dependencies/resources/non_dm_rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Corpora\GUM\GENTLE\repo\_build\utils\dm-dependencies\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Corpora\GUM\github\_build\utils\dm-dependencies\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0F80A4-2BB4-4A5E-8662-6895E22EF21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D072FC-B2EB-4390-AF8C-A042526F7CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6830" yWindow="340" windowWidth="18770" windowHeight="14520" xr2:uid="{BF4EFA19-1866-4339-A4F4-33A768915554}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BF4EFA19-1866-4339-A4F4-33A768915554}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1039,10 +1039,10 @@
     <t>(BS|doubtless|evil|fortunately|fuck|fucking|fun|hopefully|importantly|loser|oddly|probably|shit|strangely|top|justly|unfortunately|pissed|proble-|problem|lol|oWo|:/|:\)|:\(|;\)|best|:-\)|:-\(|interestingly|striking|very|extremely|highly|exceptionally|extraordinarily|masterpiece|top|milestone|sadness|excitement|ew|yikes|yay|whoa|delight|hard|legend|yes)</t>
   </si>
   <si>
-    <t>$attrib_verb = (accept|acknowledge|add|admit|afraid|agree|announce|argue|ask|assert|assess|assume|assure|aware|believe|bet|call|care|certain|chant|check|claim|comment|complain|concern|conclude|confirm|convince|cry|decide|declare|determine|disappoint|discover|discuss|doubt|dream|emphasize|ensure|establish|estimate|exclaim|expect|explain|express|feel|figure|find|forget|gather|glad|guarantee|guess|happy|hear|hold|hope|hypothesize|imagine|implore|imply|indicate|inform|know|learn|lie|maintain|mean|mention|mindful|mutter|note|notice|observe|pant|perceive|point|posit|pray|predict|presume|promise|propose|proud|quote|quoth|re-iterate|read|realise|realize|reason|recall|recognize|recommend|reiterate|remember|remind|repeat|reply|report|resent|reveal|rule|say|scream|see|shout|show|shriek|shrug|sing|snap|start|state|stunned|suggest|summarize|suppose|sure|surprise|surprised|suspect|swear|tell|terrify|think|trust|tweet|understand|vlog|whisper|wish|witness|wonder|worry|write|be%like|go%say|keep%mind|bear%mind|make%sure)</t>
-  </si>
-  <si>
-    <t>(accurate|aggressive|amaze|amazing|attractive|awesome|awful|bad|beautiful|big|cathartic|cautionary|clean|clear|commendable|complicated|considerable|cool|correct|crazy|critical|cute|dark|decent|different|difficult|dreadful|easy|efficient|enough|essential|excellent|excited|exciting|false|fantastic|fine|frightful|froughtful|frustrate|fun|fundamental|funny|glad|goddamn|good|great|gross|happy|hard|heady|healthy|heartwarming|high|historic|honest|ideal|important|inaccurate|incorrect|insane|interesting|large|legendary|likely|long|low|lucky|magnificent|militant|natural|necessary|needy|nice|normal|okay|peaceful|perfect|pleasant|possible|practical|pretty|proud|rare|real|realistic|reliable|remarkable|right|sad|safe|same|scared|scary|scenic|significant|simple|small|smart|solid|sorry|special|strange|strong|stun|stunned|stupid|sure|surpries|surprising|sweet|tame|tired|toxic|trash|tremendous|true|unbelievable|unlikely|unnatural|unpalatable|unprecedented|useful|valuable|versatile|violent|warm|weird|wild|wild|wonderful|worth|wrong)</t>
+    <t>(accurate|aggressive|amaze|amazing|attractive|awesome|awful|bad|beautiful|big|cathartic|cautionary|clean|clear|commendable|complicated|considerable|cool|correct|crazy|critical|cute|dark|decent|different|difficult|dreadful|easy|efficient|enough|essential|excellent|excited|exciting|false|fantastic|fine|frightful|froughtful|frustrate|fun|fundamental|funny|glad|goddamn|good|great|gross|happy|hard|heady|healthy|heartwarming|high|historic|honest|icky|ideal|important|inaccurate|incorrect|insane|interesting|large|legendary|likely|long|low|lucky|magnificent|militant|natural|necessary|needy|nice|normal|okay|peaceful|perfect|pleasant|possible|practical|pretty|proud|rare|real|realistic|reliable|remarkable|right|sad|safe|same|scared|scary|scenic|significant|simple|small|smart|solid|sorry|special|strange|strong|stun|stunned|stupid|sure|surpries|surprising|sweet|tame|tired|toxic|trash|tremendous|true|unbelievable|unlikely|unnatural|unpalatable|unprecedented|useful|valuable|versatile|violent|warm|weird|wild|wild|wonderful|worth|wrong)</t>
+  </si>
+  <si>
+    <t>$attrib_verb = (accept|acknowledge|add|admit|afraid|agree|announce|argue|ask|assert|assess|assume|assure|aware|believe|bet|call|care|certain|chant|check|claim|comment|complain|concern|conclude|confirm|contend|convince|cry|decide|declare|demonstrate|determine|disappoint|discover|discuss|doubt|dream|emphasize|ensure|establish|estimate|exclaim|expect|explain|express|feel|figure|find|forget|gather|glad|guarantee|guess|happy|hear|hold|hope|hypothesize|imagine|implore|imply|indicate|inform|know|learn|lie|maintain|mean|mention|mindful|mutter|note|notice|observe|pant|perceive|point|posit|pray|predict|presume|promise|propose|proud|prove|quote|quoth|re-iterate|read|realise|realize|reason|recall|recognize|recommend|reiterate|remark|remember|remind|repeat|reply|report|resent|reveal|rule|say|scream|see|shout|show|shriek|shrug|sing|snap|start|state|stunned|submit|suggest|summarize|suppose|sure|surprise|surprised|suspect|swear|tell|terrify|think|trust|tweet|understand|vlog|whisper|wish|witness|wonder|worry|write|be%like|go%say|keep%mind|bear%mind|make%sure)</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:S116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -2013,7 +2013,7 @@
         <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
